--- a/Final Project/Cálculos.xlsx
+++ b/Final Project/Cálculos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>g/cm3</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Presición</t>
   </si>
 </sst>
 </file>
@@ -493,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +752,16 @@
         <f>B16/1000</f>
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <f>B16/(360/1.8)</f>
+        <v>0.02</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -829,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>569.63499999999999</v>
+        <v>550</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -850,7 +863,7 @@
       </c>
       <c r="B27">
         <f>B24/B30</f>
-        <v>71.204374999999999</v>
+        <v>68.75</v>
       </c>
       <c r="C27" t="str">
         <f>IF(B27&gt;B26,"Euler","Otro")</f>
@@ -896,7 +909,7 @@
       </c>
       <c r="B32" s="4">
         <f>(64*E15*(B24/1000)^2/(PI()*F1*F2*10^9))^(1/4)*1000</f>
-        <v>5.5820389649682145</v>
+        <v>5.4849904480096052</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
